--- a/teaching/traditional_assets/database/data/russia/russia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.324</v>
+        <v>0.177</v>
       </c>
       <c r="E2">
-        <v>3.069</v>
+        <v>-0.208</v>
       </c>
       <c r="G2">
-        <v>0.5444606137298323</v>
+        <v>1.774436090225564</v>
       </c>
       <c r="H2">
-        <v>0.5444606137298323</v>
+        <v>1.774436090225564</v>
       </c>
       <c r="I2">
-        <v>-0.1642750184540757</v>
+        <v>0.08721804511278196</v>
       </c>
       <c r="J2">
-        <v>-0.1537303382154695</v>
+        <v>0.08721804511278196</v>
       </c>
       <c r="K2">
-        <v>-210.884</v>
+        <v>0.079</v>
       </c>
       <c r="L2">
-        <v>0.4447622060529369</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="M2">
-        <v>0.285</v>
+        <v>0.237</v>
       </c>
       <c r="N2">
-        <v>0.004005621925509487</v>
+        <v>0.03726415094339623</v>
       </c>
       <c r="O2">
-        <v>-0.001351453879858121</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>0.285</v>
+        <v>0.237</v>
       </c>
       <c r="Q2">
-        <v>0.004005621925509487</v>
+        <v>0.03726415094339623</v>
       </c>
       <c r="R2">
-        <v>-0.001351453879858121</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>9.270999999999999</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.1303021784961349</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-0.3370006279889861</v>
+        <v>0.02358208955223881</v>
       </c>
       <c r="X2">
-        <v>0.06141665849472784</v>
+        <v>0.0473054834734378</v>
       </c>
       <c r="Y2">
-        <v>-0.3984172864837139</v>
+        <v>-0.02372339392119899</v>
       </c>
       <c r="Z2">
-        <v>0.3563813035671201</v>
+        <v>0.1985074626865672</v>
       </c>
       <c r="AA2">
-        <v>0.05044205098954439</v>
+        <v>0.0173134328358209</v>
       </c>
       <c r="AB2">
-        <v>0.06054702830434511</v>
+        <v>0.04712209044112428</v>
       </c>
       <c r="AC2">
-        <v>-0.01010497731480072</v>
+        <v>-0.02980865760530339</v>
       </c>
       <c r="AD2">
-        <v>6.9</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.9</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AG2">
-        <v>-2.370999999999999</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.08840486867392698</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="AI2">
-        <v>0.07873117298037426</v>
+        <v>0.02635431918008784</v>
       </c>
       <c r="AJ2">
-        <v>-0.03447273150234809</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="AK2">
-        <v>-0.03025430973982057</v>
+        <v>0.02635431918008784</v>
       </c>
       <c r="AL2">
-        <v>3.25</v>
+        <v>0.008</v>
       </c>
       <c r="AM2">
-        <v>3.25</v>
+        <v>0.008</v>
       </c>
       <c r="AN2">
-        <v>0.08745468833177014</v>
+        <v>1.241379310344827</v>
       </c>
       <c r="AO2">
-        <v>23.96646153846154</v>
+        <v>7.25</v>
       </c>
       <c r="AP2">
-        <v>-0.0300514588455981</v>
+        <v>1.241379310344827</v>
       </c>
       <c r="AQ2">
-        <v>23.96646153846154</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.324</v>
+        <v>0.177</v>
       </c>
       <c r="E3">
-        <v>3.069</v>
+        <v>-0.208</v>
       </c>
       <c r="G3">
-        <v>0.0352</v>
+        <v>1.774436090225564</v>
       </c>
       <c r="H3">
-        <v>0.0352</v>
+        <v>1.774436090225564</v>
       </c>
       <c r="I3">
-        <v>0.4728</v>
+        <v>0.08721804511278196</v>
       </c>
       <c r="J3">
-        <v>0.4121027027027027</v>
+        <v>0.08721804511278196</v>
       </c>
       <c r="K3">
-        <v>0.516</v>
+        <v>0.079</v>
       </c>
       <c r="L3">
-        <v>0.4128</v>
+        <v>0.118796992481203</v>
       </c>
       <c r="M3">
-        <v>0.285</v>
+        <v>0.237</v>
       </c>
       <c r="N3">
-        <v>0.04351145038167939</v>
+        <v>0.03726415094339623</v>
       </c>
       <c r="O3">
-        <v>0.5523255813953488</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>0.285</v>
+        <v>0.237</v>
       </c>
       <c r="Q3">
-        <v>0.04351145038167939</v>
+        <v>0.03726415094339623</v>
       </c>
       <c r="R3">
-        <v>0.5523255813953488</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,192 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0001526717557251908</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1582822085889571</v>
+        <v>0.02358208955223881</v>
       </c>
       <c r="X3">
-        <v>0.05968687854452819</v>
+        <v>0.0473054834734378</v>
       </c>
       <c r="Y3">
-        <v>0.09859533004442887</v>
+        <v>-0.02372339392119899</v>
       </c>
       <c r="Z3">
-        <v>0.385445575084798</v>
+        <v>0.1985074626865672</v>
       </c>
       <c r="AA3">
-        <v>0.1588431632372428</v>
+        <v>0.0173134328358209</v>
       </c>
       <c r="AB3">
-        <v>0.05968687854452819</v>
+        <v>0.04712209044112428</v>
       </c>
       <c r="AC3">
-        <v>0.09915628469271461</v>
+        <v>-0.02980865760530339</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AG3">
-        <v>-0.001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02635431918008784</v>
       </c>
       <c r="AJ3">
-        <v>-0.0001526950679493053</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="AK3">
-        <v>-0.0002825656965244419</v>
+        <v>0.02635431918008784</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.241379310344827</v>
+      </c>
+      <c r="AO3">
+        <v>7.25</v>
       </c>
       <c r="AP3">
-        <v>-0.001672240802675585</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Public Joint Stock Company Financial Group FUTURE (MISX:FTRE)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G4">
-        <v>0.5431215818258309</v>
-      </c>
-      <c r="H4">
-        <v>0.5431215818258309</v>
-      </c>
-      <c r="I4">
-        <v>-0.1625999158603282</v>
-      </c>
-      <c r="J4">
-        <v>-0.1625999158603282</v>
-      </c>
-      <c r="K4">
-        <v>-211.4</v>
-      </c>
-      <c r="L4">
-        <v>0.4446781657551536</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>9.27</v>
-      </c>
-      <c r="V4">
-        <v>0.1434984520123839</v>
-      </c>
-      <c r="W4">
-        <v>-0.8322834645669291</v>
-      </c>
-      <c r="X4">
-        <v>0.0631464384449275</v>
-      </c>
-      <c r="Y4">
-        <v>-0.8954299030118567</v>
-      </c>
-      <c r="Z4">
-        <v>0.3564519757066806</v>
-      </c>
-      <c r="AA4">
-        <v>-0.057959061258154</v>
-      </c>
-      <c r="AB4">
-        <v>0.06140717806416204</v>
-      </c>
-      <c r="AC4">
-        <v>-0.119366239322316</v>
-      </c>
-      <c r="AD4">
-        <v>6.9</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>6.9</v>
-      </c>
-      <c r="AG4">
-        <v>-2.369999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.0965034965034965</v>
-      </c>
-      <c r="AI4">
-        <v>0.08204518430439953</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.03808452514864212</v>
-      </c>
-      <c r="AK4">
-        <v>-0.03167178938928236</v>
-      </c>
-      <c r="AL4">
-        <v>3.25</v>
-      </c>
-      <c r="AM4">
-        <v>3.25</v>
-      </c>
-      <c r="AN4">
-        <v>0.08812260536398468</v>
-      </c>
-      <c r="AO4">
-        <v>23.78461538461539</v>
-      </c>
-      <c r="AP4">
-        <v>-0.03026819923371647</v>
-      </c>
-      <c r="AQ4">
-        <v>23.78461538461539</v>
+        <v>1.241379310344827</v>
+      </c>
+      <c r="AQ3">
+        <v>7.25</v>
       </c>
     </row>
   </sheetData>
